--- a/repetier/pinout-diffs.xlsx
+++ b/repetier/pinout-diffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/multidest/Projects/3dprinter/Da-Vinci-1.0A/repetier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93D573A-434B-0B4D-8B53-2190756538F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A20F0E-894B-5E4E-9E4D-430C49E13790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1160" windowWidth="32580" windowHeight="18800" tabRatio="986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4859,10 +4859,10 @@
   <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
